--- a/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
+++ b/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-04T15:31:44+00:00</t>
+    <t>2024-09-04T15:33:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
+++ b/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -45,7 +45,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-04T15:33:01+00:00</t>
+    <t>2024-09-05T14:31:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
+++ b/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-05T14:31:01+00:00</t>
+    <t>2024-09-05T14:31:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
+++ b/ig/StructureDefinition-sas-sos-organization-aggregator.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-05T14:31:22+00:00</t>
+    <t>2024-12-11T08:48:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profil d'Organization, dérivé de FrOrganization, pour le service d’agrégation de créneaux de la plateforme SAS (Service d’accès aux soins), dans le cadre du cas d’usage SOS Médecins</t>
+    <t>Profil d'Organization, dérivé de FrOrganization, pour le service d’agrégation de créneaux de la plateforme SAS - cas d’usage SOS Médecins</t>
   </si>
   <si>
     <t>Purpose</t>
